--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
@@ -540,10 +540,10 @@
         <v>5.005563</v>
       </c>
       <c r="I2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N2">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O2">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P2">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q2">
-        <v>8.438974879744334</v>
+        <v>6.830392159627334</v>
       </c>
       <c r="R2">
-        <v>75.95077391769901</v>
+        <v>61.473529436646</v>
       </c>
       <c r="S2">
-        <v>0.1677791051249432</v>
+        <v>0.148574805554029</v>
       </c>
       <c r="T2">
-        <v>0.1677791051249432</v>
+        <v>0.148574805554029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>5.005563</v>
       </c>
       <c r="I3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>42.742233</v>
       </c>
       <c r="O3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q3">
         <v>23.772104449131</v>
@@ -632,10 +632,10 @@
         <v>213.948940042179</v>
       </c>
       <c r="S3">
-        <v>0.4726240412191764</v>
+        <v>0.5170912172533896</v>
       </c>
       <c r="T3">
-        <v>0.4726240412191764</v>
+        <v>0.5170912172533896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>5.005563</v>
       </c>
       <c r="I4">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J4">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N4">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q4">
-        <v>16.46254364785533</v>
+        <v>11.79838173522833</v>
       </c>
       <c r="R4">
-        <v>148.162892830698</v>
+        <v>106.185435617055</v>
       </c>
       <c r="S4">
-        <v>0.3272993320488668</v>
+        <v>0.2566385986627446</v>
       </c>
       <c r="T4">
-        <v>0.3272993320488668</v>
+        <v>0.2566385986627446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H5">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N5">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O5">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P5">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q5">
-        <v>0.2816547230221111</v>
+        <v>0.5753954734646668</v>
       </c>
       <c r="R5">
-        <v>2.534892507199</v>
+        <v>5.178559261182</v>
       </c>
       <c r="S5">
-        <v>0.005599705895118769</v>
+        <v>0.01251601205154604</v>
       </c>
       <c r="T5">
-        <v>0.00559970589511877</v>
+        <v>0.01251601205154604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H6">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I6">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J6">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>42.742233</v>
       </c>
       <c r="O6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q6">
-        <v>0.7934050746310001</v>
+        <v>2.002573347927</v>
       </c>
       <c r="R6">
-        <v>7.140645671679001</v>
+        <v>18.023160131343</v>
       </c>
       <c r="S6">
-        <v>0.01577404783401972</v>
+        <v>0.04356000926777948</v>
       </c>
       <c r="T6">
-        <v>0.01577404783401972</v>
+        <v>0.04356000926777948</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H7">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I7">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J7">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N7">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q7">
-        <v>0.5494450732997778</v>
+        <v>0.9939012703816666</v>
       </c>
       <c r="R7">
-        <v>4.945005659698</v>
+        <v>8.945111433435001</v>
       </c>
       <c r="S7">
-        <v>0.01092376787787504</v>
+        <v>0.02161935721051122</v>
       </c>
       <c r="T7">
-        <v>0.01092376787787504</v>
+        <v>0.02161935721051122</v>
       </c>
     </row>
   </sheetData>
